--- a/Data/aearep-451/candidatepackages.xlsx
+++ b/Data/aearep-451/candidatepackages.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="46">
   <si>
     <t>(Potential) missing package found</t>
   </si>
@@ -25,9 +25,6 @@
     <t>estout</t>
   </si>
   <si>
-    <t>filelist</t>
-  </si>
-  <si>
     <t>unique</t>
   </si>
   <si>
@@ -40,21 +37,18 @@
     <t>missing</t>
   </si>
   <si>
-    <t>network</t>
-  </si>
-  <si>
     <t>wtp</t>
   </si>
   <si>
+    <t>title</t>
+  </si>
+  <si>
     <t>project</t>
   </si>
   <si>
     <t>report</t>
   </si>
   <si>
-    <t>title</t>
-  </si>
-  <si>
     <t>split</t>
   </si>
   <si>
@@ -70,39 +64,30 @@
     <t>bmi</t>
   </si>
   <si>
+    <t>bys</t>
+  </si>
+  <si>
+    <t>pre</t>
+  </si>
+  <si>
+    <t>effects</t>
+  </si>
+  <si>
     <t>cid</t>
   </si>
   <si>
-    <t>bys</t>
-  </si>
-  <si>
-    <t>pre</t>
-  </si>
-  <si>
-    <t>effects</t>
-  </si>
-  <si>
-    <t>next</t>
-  </si>
-  <si>
-    <t>email</t>
+    <t>stop</t>
   </si>
   <si>
     <t>scores</t>
   </si>
   <si>
-    <t>zip</t>
-  </si>
-  <si>
-    <t>stop</t>
+    <t>dash</t>
   </si>
   <si>
     <t>switch</t>
   </si>
   <si>
-    <t>dash</t>
-  </si>
-  <si>
     <t>preparation</t>
   </si>
   <si>
@@ -118,9 +103,6 @@
     <t>dirname</t>
   </si>
   <si>
-    <t>/home/lv39/Workspace/AEA/all//aearep-451</t>
-  </si>
-  <si>
     <t>/home/lv39/Workspace/AEA/all//aearep-451/117401/STATA REPLICATION/3_Do Files</t>
   </si>
   <si>
@@ -128,9 +110,6 @@
   </si>
   <si>
     <t>filename</t>
-  </si>
-  <si>
-    <t>PII_stata_scan.do</t>
   </si>
   <si>
     <t>master.do</t>
@@ -216,7 +195,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D25"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -224,13 +203,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2">
@@ -238,7 +217,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -262,7 +241,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -274,7 +253,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -286,7 +265,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>61</v>
+        <v>93</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -298,7 +277,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>92</v>
+        <v>293</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -310,10 +289,10 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>267</v>
+        <v>477</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>0.15768595039844513</v>
       </c>
       <c r="D8"/>
     </row>
@@ -322,10 +301,10 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>279</v>
+        <v>499</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>0.16495867073535919</v>
       </c>
       <c r="D9"/>
     </row>
@@ -334,10 +313,10 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>490</v>
+        <v>547</v>
       </c>
       <c r="C10">
-        <v>0.16246683895587921</v>
+        <v>0.18082644045352936</v>
       </c>
       <c r="D10"/>
     </row>
@@ -346,10 +325,10 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>503</v>
+        <v>611</v>
       </c>
       <c r="C11">
-        <v>0.16677719354629517</v>
+        <v>0.20198346674442291</v>
       </c>
       <c r="D11"/>
     </row>
@@ -358,10 +337,10 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>564</v>
+        <v>632</v>
       </c>
       <c r="C12">
-        <v>0.18700265884399414</v>
+        <v>0.20892561972141266</v>
       </c>
       <c r="D12"/>
     </row>
@@ -370,10 +349,10 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>565</v>
+        <v>647</v>
       </c>
       <c r="C13">
-        <v>0.18733422458171844</v>
+        <v>0.21388429403305054</v>
       </c>
       <c r="D13"/>
     </row>
@@ -382,10 +361,10 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>606</v>
+        <v>756</v>
       </c>
       <c r="C14">
-        <v>0.20092837512493134</v>
+        <v>0.24991735816001892</v>
       </c>
       <c r="D14"/>
     </row>
@@ -394,10 +373,10 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>613</v>
+        <v>998</v>
       </c>
       <c r="C15">
-        <v>0.20324933528900146</v>
+        <v>0.32991734147071838</v>
       </c>
       <c r="D15"/>
     </row>
@@ -406,10 +385,10 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>782</v>
+        <v>1201</v>
       </c>
       <c r="C16">
-        <v>0.25928381085395813</v>
+        <v>0.39702478051185608</v>
       </c>
       <c r="D16"/>
     </row>
@@ -418,10 +397,10 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>985</v>
+        <v>1306</v>
       </c>
       <c r="C17">
-        <v>0.32659152150154114</v>
+        <v>0.43173554539680481</v>
       </c>
       <c r="D17"/>
     </row>
@@ -430,10 +409,10 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>1193</v>
+        <v>1428</v>
       </c>
       <c r="C18">
-        <v>0.39555701613426208</v>
+        <v>0.47206610441207886</v>
       </c>
       <c r="D18"/>
     </row>
@@ -442,10 +421,10 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>1464</v>
+        <v>1497</v>
       </c>
       <c r="C19">
-        <v>0.485411137342453</v>
+        <v>0.49487602710723877</v>
       </c>
       <c r="D19"/>
     </row>
@@ -454,10 +433,10 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>1472</v>
+        <v>1561</v>
       </c>
       <c r="C20">
-        <v>0.48806366324424744</v>
+        <v>0.51603305339813232</v>
       </c>
       <c r="D20"/>
     </row>
@@ -466,10 +445,10 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>1553</v>
+        <v>1724</v>
       </c>
       <c r="C21">
-        <v>0.51492041349411011</v>
+        <v>0.56991738080978394</v>
       </c>
       <c r="D21"/>
     </row>
@@ -478,10 +457,10 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>1660</v>
+        <v>2030</v>
       </c>
       <c r="C22">
-        <v>0.55039787292480469</v>
+        <v>0.67107439041137695</v>
       </c>
       <c r="D22"/>
     </row>
@@ -490,10 +469,10 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>1798</v>
+        <v>2436</v>
       </c>
       <c r="C23">
-        <v>0.5961538553237915</v>
+        <v>0.80528926849365234</v>
       </c>
       <c r="D23"/>
     </row>
@@ -502,10 +481,10 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>1817</v>
+        <v>2806</v>
       </c>
       <c r="C24">
-        <v>0.60245358943939209</v>
+        <v>0.92760330438613892</v>
       </c>
       <c r="D24"/>
     </row>
@@ -514,72 +493,12 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>1835</v>
+        <v>2936</v>
       </c>
       <c r="C25">
-        <v>0.60842174291610718</v>
+        <v>0.97057849168777466</v>
       </c>
       <c r="D25"/>
-    </row>
-    <row r="26">
-      <c r="A26" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26">
-        <v>1859</v>
-      </c>
-      <c r="C26">
-        <v>0.61637932062149048</v>
-      </c>
-      <c r="D26"/>
-    </row>
-    <row r="27">
-      <c r="A27" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27">
-        <v>1890</v>
-      </c>
-      <c r="C27">
-        <v>0.62665784358978271</v>
-      </c>
-      <c r="D27"/>
-    </row>
-    <row r="28">
-      <c r="A28" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28">
-        <v>2367</v>
-      </c>
-      <c r="C28">
-        <v>0.78481429815292358</v>
-      </c>
-      <c r="D28"/>
-    </row>
-    <row r="29">
-      <c r="A29" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29">
-        <v>2424</v>
-      </c>
-      <c r="C29">
-        <v>0.80371350049972534</v>
-      </c>
-      <c r="D29"/>
-    </row>
-    <row r="30">
-      <c r="A30" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30">
-        <v>2928</v>
-      </c>
-      <c r="C30">
-        <v>0.97082227468490601</v>
-      </c>
-      <c r="D30"/>
     </row>
   </sheetData>
 </worksheet>
@@ -587,135 +506,127 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B15"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" t="s">
         <v>36</v>
-      </c>
-      <c r="B6" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B13" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B14" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B15" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
